--- a/Code/Results/Cases/Case_1_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.77111594398377</v>
+        <v>14.3280885520863</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.451654949009374</v>
+        <v>3.357149727881108</v>
       </c>
       <c r="E2">
-        <v>20.26848485032192</v>
+        <v>20.73015233425628</v>
       </c>
       <c r="F2">
-        <v>23.07709894495179</v>
+        <v>21.64544918826361</v>
       </c>
       <c r="G2">
-        <v>2.026923654634342</v>
+        <v>3.587041825821306</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.02729492797357</v>
+        <v>23.80554090927901</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.211245703186091</v>
+        <v>9.126775261208101</v>
       </c>
       <c r="M2">
-        <v>11.77142389804968</v>
+        <v>14.46051191956086</v>
       </c>
       <c r="N2">
-        <v>14.14801537326786</v>
+        <v>18.67389829705905</v>
       </c>
       <c r="O2">
-        <v>17.60223797687138</v>
+        <v>18.84889308477368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.90423912189095</v>
+        <v>14.08723468803584</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.409796264625141</v>
+        <v>3.345270998204921</v>
       </c>
       <c r="E3">
-        <v>19.62306706891193</v>
+        <v>20.54091440889676</v>
       </c>
       <c r="F3">
-        <v>21.74710644679109</v>
+        <v>21.36950019760859</v>
       </c>
       <c r="G3">
-        <v>2.033390409469221</v>
+        <v>3.589551984262742</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.43014382462402</v>
+        <v>23.9501469762957</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.698037869968837</v>
+        <v>9.043663792821205</v>
       </c>
       <c r="M3">
-        <v>11.22928854789221</v>
+        <v>14.35844328079726</v>
       </c>
       <c r="N3">
-        <v>14.10703680107991</v>
+        <v>18.68594310877313</v>
       </c>
       <c r="O3">
-        <v>16.71227382338568</v>
+        <v>18.71455813311098</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.34616451139863</v>
+        <v>13.93899633274005</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.383535069011634</v>
+        <v>3.337859394778944</v>
       </c>
       <c r="E4">
-        <v>19.21633899040883</v>
+        <v>20.42377429749029</v>
       </c>
       <c r="F4">
-        <v>20.90826608469596</v>
+        <v>21.20569624594085</v>
       </c>
       <c r="G4">
-        <v>2.037482962247383</v>
+        <v>3.591176289876296</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.68449871286202</v>
+        <v>24.04344051476142</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.365769803673469</v>
+        <v>8.993569860024715</v>
       </c>
       <c r="M4">
-        <v>10.88574590741832</v>
+        <v>14.29718447948174</v>
       </c>
       <c r="N4">
-        <v>14.08596625240528</v>
+        <v>18.69545339925583</v>
       </c>
       <c r="O4">
-        <v>16.15759768065616</v>
+        <v>18.63752583019081</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.11240480213561</v>
+        <v>13.8785720011147</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.372700589403501</v>
+        <v>3.334810120241796</v>
       </c>
       <c r="E5">
-        <v>19.04814311732603</v>
+        <v>20.37583068868311</v>
       </c>
       <c r="F5">
-        <v>20.5612133925973</v>
+        <v>21.14044714153372</v>
       </c>
       <c r="G5">
-        <v>2.039182276842531</v>
+        <v>3.591859162399067</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.78994905721297</v>
+        <v>24.08259445977117</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.258206954097809</v>
+        <v>8.973410298413159</v>
       </c>
       <c r="M5">
-        <v>10.74324459607543</v>
+        <v>14.27259583260069</v>
       </c>
       <c r="N5">
-        <v>14.07840121844846</v>
+        <v>18.69986238344344</v>
       </c>
       <c r="O5">
-        <v>15.92979237516997</v>
+        <v>18.60753515820188</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.07321139445813</v>
+        <v>13.86853976868662</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.370893748772983</v>
+        <v>3.334302059957579</v>
       </c>
       <c r="E6">
-        <v>19.02007174529992</v>
+        <v>20.36785800408807</v>
       </c>
       <c r="F6">
-        <v>20.50328278611681</v>
+        <v>21.12970577779968</v>
       </c>
       <c r="G6">
-        <v>2.039466378800639</v>
+        <v>3.591973820513253</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.80756870493531</v>
+        <v>24.08916465533205</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.240223261293075</v>
+        <v>8.970078700013351</v>
       </c>
       <c r="M6">
-        <v>10.71943680820733</v>
+        <v>14.26853611186678</v>
       </c>
       <c r="N6">
-        <v>14.07720651821795</v>
+        <v>18.70062676008625</v>
       </c>
       <c r="O6">
-        <v>15.8918683084595</v>
+        <v>18.60264065143169</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.34303739031499</v>
+        <v>13.93818139690263</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.383389478502285</v>
+        <v>3.337818387659469</v>
       </c>
       <c r="E7">
-        <v>19.21408032188447</v>
+        <v>20.42312851576629</v>
       </c>
       <c r="F7">
-        <v>20.90360619174447</v>
+        <v>21.20481007895513</v>
       </c>
       <c r="G7">
-        <v>2.037505750825861</v>
+        <v>3.591185414397016</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.68591352199027</v>
+        <v>24.04396395427431</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.364327504907345</v>
+        <v>8.993296928040742</v>
       </c>
       <c r="M7">
-        <v>10.8838339719938</v>
+        <v>14.29685132506205</v>
       </c>
       <c r="N7">
-        <v>14.08586010205485</v>
+        <v>18.6955106981932</v>
       </c>
       <c r="O7">
-        <v>16.15453215292573</v>
+        <v>18.63711565667602</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.47765244643267</v>
+        <v>14.24515873157063</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.437342902486574</v>
+        <v>3.353078848783796</v>
       </c>
       <c r="E8">
-        <v>20.04821000410824</v>
+        <v>20.66511774427303</v>
       </c>
       <c r="F8">
-        <v>22.62332540581827</v>
+        <v>21.54918653082406</v>
       </c>
       <c r="G8">
-        <v>2.029128642535483</v>
+        <v>3.587890131397932</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.16476665693354</v>
+        <v>23.85446809365834</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.037894549439947</v>
+        <v>9.097935239844718</v>
       </c>
       <c r="M8">
-        <v>11.58680859091704</v>
+        <v>14.42503769707015</v>
       </c>
       <c r="N8">
-        <v>14.13303281086365</v>
+        <v>18.67761347322687</v>
       </c>
       <c r="O8">
-        <v>17.29725217951288</v>
+        <v>18.80146222137145</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.49295684699875</v>
+        <v>14.84120977821415</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.538375998401547</v>
+        <v>3.382038512161989</v>
       </c>
       <c r="E9">
-        <v>21.59444214186293</v>
+        <v>21.13082912781159</v>
       </c>
       <c r="F9">
-        <v>25.8072159950859</v>
+        <v>22.26521677557766</v>
       </c>
       <c r="G9">
-        <v>2.013625175314311</v>
+        <v>3.582083972934912</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.19657572809885</v>
+        <v>23.51845943645343</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.222485659811522</v>
+        <v>9.309731298711887</v>
       </c>
       <c r="M9">
-        <v>12.92979871646896</v>
+        <v>14.68671859091384</v>
       </c>
       <c r="N9">
-        <v>14.25829821165011</v>
+        <v>18.65922057221555</v>
       </c>
       <c r="O9">
-        <v>19.46215729579774</v>
+        <v>19.16553099925294</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.84117538927284</v>
+        <v>15.27145324369149</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.609291109944926</v>
+        <v>3.402687451931108</v>
       </c>
       <c r="E10">
-        <v>22.6683729069185</v>
+        <v>21.46586856217897</v>
       </c>
       <c r="F10">
-        <v>28.16180988850742</v>
+        <v>22.81064595417782</v>
       </c>
       <c r="G10">
-        <v>2.002733099964591</v>
+        <v>3.578213634806172</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.51536178306563</v>
+        <v>23.29307768986745</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.00977463417734</v>
+        <v>9.468227722184572</v>
       </c>
       <c r="M10">
-        <v>14.03071604922253</v>
+        <v>14.88403431863271</v>
       </c>
       <c r="N10">
-        <v>14.3706944061346</v>
+        <v>18.65578624993435</v>
       </c>
       <c r="O10">
-        <v>21.09433436231286</v>
+        <v>19.45636592988428</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.42523196679761</v>
+        <v>15.4647022735226</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.640756347348446</v>
+        <v>3.411936653978399</v>
       </c>
       <c r="E11">
-        <v>23.14224925980175</v>
+        <v>21.61637908918142</v>
       </c>
       <c r="F11">
-        <v>29.22889213899171</v>
+        <v>23.06180192738228</v>
       </c>
       <c r="G11">
-        <v>1.9978705827025</v>
+        <v>3.576537850137083</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.21136853593208</v>
+        <v>23.19516508569138</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.35018067008216</v>
+        <v>9.540715278338011</v>
       </c>
       <c r="M11">
-        <v>14.50570963085269</v>
+        <v>14.97462960923945</v>
       </c>
       <c r="N11">
-        <v>14.42632199647814</v>
+        <v>18.65638884116142</v>
       </c>
       <c r="O11">
-        <v>21.91059449921017</v>
+        <v>19.59325127790343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.64216938574422</v>
+        <v>15.53746126403533</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.652551471926427</v>
+        <v>3.415417641901388</v>
       </c>
       <c r="E12">
-        <v>23.31951035191927</v>
+        <v>21.67307031968667</v>
       </c>
       <c r="F12">
-        <v>29.62711307938335</v>
+        <v>23.15724694089287</v>
       </c>
       <c r="G12">
-        <v>1.996041146612865</v>
+        <v>3.575915404393716</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.09704652357894</v>
+        <v>23.15874830844864</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.47656089739084</v>
+        <v>9.568199544941944</v>
       </c>
       <c r="M12">
-        <v>14.68189730750302</v>
+        <v>15.00903302504209</v>
       </c>
       <c r="N12">
-        <v>14.44803849027329</v>
+        <v>18.656926182407</v>
       </c>
       <c r="O12">
-        <v>22.2151315573777</v>
+        <v>19.64570140900254</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.59563651300402</v>
+        <v>15.52181100287785</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.650016608342872</v>
+        <v>3.414668916505787</v>
       </c>
       <c r="E13">
-        <v>23.28143224586657</v>
+        <v>21.66087484184045</v>
       </c>
       <c r="F13">
-        <v>29.54160789953045</v>
+        <v>23.13667769299729</v>
       </c>
       <c r="G13">
-        <v>1.996434642730724</v>
+        <v>3.576048920415339</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.12163341748463</v>
+        <v>23.16656197985854</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.44945445635936</v>
+        <v>9.562279098170535</v>
       </c>
       <c r="M13">
-        <v>14.64411536596412</v>
+        <v>15.00161969173253</v>
       </c>
       <c r="N13">
-        <v>14.44333240711528</v>
+        <v>18.65679674189227</v>
       </c>
       <c r="O13">
-        <v>22.149745194582</v>
+        <v>19.63437871915953</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.44316445290972</v>
+        <v>15.47069698188423</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.641729177355788</v>
+        <v>3.412223471887067</v>
       </c>
       <c r="E14">
-        <v>23.15687681715902</v>
+        <v>21.62104937294264</v>
       </c>
       <c r="F14">
-        <v>29.2617708191566</v>
+        <v>23.06964804075385</v>
       </c>
       <c r="G14">
-        <v>1.997719843873407</v>
+        <v>3.576486398261874</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.20194761223525</v>
+        <v>23.19215583308842</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.36062847077499</v>
+        <v>9.542975846642204</v>
       </c>
       <c r="M14">
-        <v>14.52027830036275</v>
+        <v>14.97745818896085</v>
       </c>
       <c r="N14">
-        <v>14.42809554230508</v>
+        <v>18.65642686530122</v>
       </c>
       <c r="O14">
-        <v>21.93573975380377</v>
+        <v>19.59755432249101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.34921925107675</v>
+        <v>15.43933157023868</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.636637085077184</v>
+        <v>3.41072274596989</v>
       </c>
       <c r="E15">
-        <v>23.08029640753272</v>
+        <v>21.59661465863373</v>
       </c>
       <c r="F15">
-        <v>29.08960265507575</v>
+        <v>23.02863150388424</v>
       </c>
       <c r="G15">
-        <v>1.998508572519378</v>
+        <v>3.576755944849083</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.25124406381997</v>
+        <v>23.20791874879971</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.30589211735789</v>
+        <v>9.531155964993662</v>
       </c>
       <c r="M15">
-        <v>14.44394599055489</v>
+        <v>14.96267050724826</v>
       </c>
       <c r="N15">
-        <v>14.41884750416579</v>
+        <v>18.65624050068331</v>
       </c>
       <c r="O15">
-        <v>21.80406430392881</v>
+        <v>19.5750770191942</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.80241474803003</v>
+        <v>15.25876862393064</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.607218284979194</v>
+        <v>3.402080029912465</v>
       </c>
       <c r="E16">
-        <v>22.63710192608362</v>
+        <v>21.45599147637835</v>
       </c>
       <c r="F16">
-        <v>28.09124780808618</v>
+        <v>22.79428494332398</v>
       </c>
       <c r="G16">
-        <v>2.003052619249701</v>
+        <v>3.578324853222418</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.53534253778668</v>
+        <v>23.29956911229858</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.987173561261924</v>
+        <v>9.463496489969446</v>
       </c>
       <c r="M16">
-        <v>13.99915707655587</v>
+        <v>14.87812853307056</v>
       </c>
       <c r="N16">
-        <v>14.36714993777491</v>
+        <v>18.655790249902</v>
       </c>
       <c r="O16">
-        <v>21.04034545951231</v>
+        <v>19.44750860492377</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.45945244190084</v>
+        <v>15.14731907623625</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.588963004520266</v>
+        <v>3.39674055254592</v>
       </c>
       <c r="E17">
-        <v>22.3614006315719</v>
+        <v>21.36921500645752</v>
       </c>
       <c r="F17">
-        <v>27.46824364957067</v>
+        <v>22.65122801514811</v>
       </c>
       <c r="G17">
-        <v>2.0058629456263</v>
+        <v>3.579309014518291</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.71110020140171</v>
+        <v>23.35697344082174</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.787124889908435</v>
+        <v>9.422073799216129</v>
       </c>
       <c r="M17">
-        <v>13.71970100344339</v>
+        <v>14.82646225985493</v>
       </c>
       <c r="N17">
-        <v>14.33659070779882</v>
+        <v>18.6560670077166</v>
       </c>
       <c r="O17">
-        <v>20.56358897625311</v>
+        <v>19.37039215247129</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.25943652157197</v>
+        <v>15.0829873627227</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.578388592266265</v>
+        <v>3.393655908152409</v>
       </c>
       <c r="E18">
-        <v>22.20144810724134</v>
+        <v>21.31912637467251</v>
       </c>
       <c r="F18">
-        <v>27.10600467785002</v>
+        <v>22.56923723151346</v>
       </c>
       <c r="G18">
-        <v>2.007488152095378</v>
+        <v>3.579883068491405</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.81274961315356</v>
+        <v>23.39042542486482</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.670390989775155</v>
+        <v>9.398286204162181</v>
       </c>
       <c r="M18">
-        <v>13.55653290937444</v>
+        <v>14.79682520947107</v>
       </c>
       <c r="N18">
-        <v>14.31943696792792</v>
+        <v>18.65643009457341</v>
       </c>
       <c r="O18">
-        <v>20.32609325795326</v>
+        <v>19.32647093796423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.19124273067299</v>
+        <v>15.06116846853711</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.57479567695344</v>
+        <v>3.392609202033812</v>
       </c>
       <c r="E19">
-        <v>22.14705719205607</v>
+        <v>21.30213774743626</v>
       </c>
       <c r="F19">
-        <v>26.98268408204986</v>
+        <v>22.54152971356838</v>
       </c>
       <c r="G19">
-        <v>2.008039967609716</v>
+        <v>3.580078807625799</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.84726382216767</v>
+        <v>23.40182641464816</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.630579134806162</v>
+        <v>9.390239234381776</v>
       </c>
       <c r="M19">
-        <v>13.50086837400432</v>
+        <v>14.78680506278759</v>
       </c>
       <c r="N19">
-        <v>14.31370152633127</v>
+        <v>18.65658811436092</v>
       </c>
       <c r="O19">
-        <v>20.24837802791843</v>
+        <v>19.31167586436349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.49624652549667</v>
+        <v>15.15920723941296</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.590914060491091</v>
+        <v>3.397310353628585</v>
       </c>
       <c r="E20">
-        <v>22.39089258060413</v>
+        <v>21.37847106231418</v>
       </c>
       <c r="F20">
-        <v>27.53496693285748</v>
+        <v>22.66642719336505</v>
       </c>
       <c r="G20">
-        <v>2.005562882451361</v>
+        <v>3.579203422354384</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.69233310023421</v>
+        <v>23.35081770125664</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.808593197663351</v>
+        <v>9.426479570838298</v>
       </c>
       <c r="M20">
-        <v>13.74970111009756</v>
+        <v>14.83195410843256</v>
       </c>
       <c r="N20">
-        <v>14.3397999629369</v>
+        <v>18.65601645850646</v>
       </c>
       <c r="O20">
-        <v>20.6146564407271</v>
+        <v>19.37855671755736</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.48806418496849</v>
+        <v>15.48572231518275</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.644166699383892</v>
+        <v>3.41294234739271</v>
       </c>
       <c r="E21">
-        <v>23.19352160802294</v>
+        <v>21.6327555649599</v>
       </c>
       <c r="F21">
-        <v>29.34412390172646</v>
+        <v>23.08932789221892</v>
       </c>
       <c r="G21">
-        <v>1.997342037966407</v>
+        <v>3.576357571512093</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.17833629639359</v>
+        <v>23.1846203931302</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.38678709182066</v>
+        <v>9.548644900074802</v>
       </c>
       <c r="M21">
-        <v>14.55675191307062</v>
+        <v>14.98455256188626</v>
       </c>
       <c r="N21">
-        <v>14.43255326096356</v>
+        <v>18.65652713428438</v>
       </c>
       <c r="O21">
-        <v>21.99872128465727</v>
+        <v>19.60835421968157</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.13160697893057</v>
+        <v>15.6966415739574</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.67826816514235</v>
+        <v>3.423033180109601</v>
       </c>
       <c r="E22">
-        <v>23.70532386148918</v>
+        <v>21.79716046469607</v>
       </c>
       <c r="F22">
-        <v>30.49242086146343</v>
+        <v>23.36764146679346</v>
       </c>
       <c r="G22">
-        <v>1.992037837848043</v>
+        <v>3.574568360982708</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.8470077338366</v>
+        <v>23.07984996589733</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.74997252028247</v>
+        <v>9.628680336701013</v>
       </c>
       <c r="M22">
-        <v>15.06276151229283</v>
+        <v>15.08483878121514</v>
       </c>
       <c r="N22">
-        <v>14.49697242694332</v>
+        <v>18.65866181186783</v>
       </c>
       <c r="O22">
-        <v>22.87675181351609</v>
+        <v>19.76210127684596</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.78107123538956</v>
+        <v>15.58431727920236</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.660133606921392</v>
+        <v>3.417659254784462</v>
       </c>
       <c r="E23">
-        <v>23.43335392229534</v>
+        <v>21.70958770280811</v>
       </c>
       <c r="F23">
-        <v>29.88263411059299</v>
+        <v>23.21895661654745</v>
       </c>
       <c r="G23">
-        <v>1.99486300110321</v>
+        <v>3.575516846686022</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.02344213935655</v>
+        <v>23.13541669938742</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.55746876845528</v>
+        <v>9.585953058002907</v>
       </c>
       <c r="M23">
-        <v>14.79464561462549</v>
+        <v>15.03127108415476</v>
       </c>
       <c r="N23">
-        <v>14.4622415988909</v>
+        <v>18.65735844335829</v>
       </c>
       <c r="O23">
-        <v>22.41052038498227</v>
+        <v>19.67973270377378</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.47962077143206</v>
+        <v>15.15383339909426</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.590032234353338</v>
+        <v>3.397052792921493</v>
       </c>
       <c r="E24">
-        <v>22.37756377509704</v>
+        <v>21.37428701920085</v>
       </c>
       <c r="F24">
-        <v>27.50481400645723</v>
+        <v>22.65955484435898</v>
       </c>
       <c r="G24">
-        <v>2.005698511280734</v>
+        <v>3.579251134878789</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.70081582134383</v>
+        <v>23.35359931080503</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.798892745216579</v>
+        <v>9.424487636209541</v>
       </c>
       <c r="M24">
-        <v>13.73614586690199</v>
+        <v>14.82947103451551</v>
       </c>
       <c r="N24">
-        <v>14.33834776589412</v>
+        <v>18.656038676274</v>
       </c>
       <c r="O24">
-        <v>20.59157876123366</v>
+        <v>19.37486422448575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.97077702093436</v>
+        <v>14.68102491154187</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.511598203623584</v>
+        <v>3.374311575651968</v>
       </c>
       <c r="E25">
-        <v>21.18657717413355</v>
+        <v>21.005967478014</v>
       </c>
       <c r="F25">
-        <v>24.96747336062399</v>
+        <v>22.06771169624221</v>
       </c>
       <c r="G25">
-        <v>2.017726786238581</v>
+        <v>3.583584932229588</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.45300591099063</v>
+        <v>23.60557052457187</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.916681513657339</v>
+        <v>9.251844544381919</v>
       </c>
       <c r="M25">
-        <v>12.53648437374469</v>
+        <v>14.6149484974525</v>
       </c>
       <c r="N25">
-        <v>14.22086074758065</v>
+        <v>18.66241853287728</v>
       </c>
       <c r="O25">
-        <v>18.88591169201966</v>
+        <v>19.06277758319763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_245/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_245/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.3280885520863</v>
+        <v>14.77111594398376</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.357149727881108</v>
+        <v>2.451654949009304</v>
       </c>
       <c r="E2">
-        <v>20.73015233425628</v>
+        <v>20.2684848503216</v>
       </c>
       <c r="F2">
-        <v>21.64544918826361</v>
+        <v>23.07709894495183</v>
       </c>
       <c r="G2">
-        <v>3.587041825821306</v>
+        <v>2.026923654634209</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.80554090927901</v>
+        <v>14.02729492797344</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.126775261208101</v>
+        <v>8.211245703186112</v>
       </c>
       <c r="M2">
-        <v>14.46051191956086</v>
+        <v>11.77142389804967</v>
       </c>
       <c r="N2">
-        <v>18.67389829705905</v>
+        <v>14.14801537326774</v>
       </c>
       <c r="O2">
-        <v>18.84889308477368</v>
+        <v>17.60223797687141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.08723468803584</v>
+        <v>13.90423912189094</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.345270998204921</v>
+        <v>2.409796264625204</v>
       </c>
       <c r="E3">
-        <v>20.54091440889676</v>
+        <v>19.62306706891177</v>
       </c>
       <c r="F3">
-        <v>21.36950019760859</v>
+        <v>21.74710644679108</v>
       </c>
       <c r="G3">
-        <v>3.589551984262742</v>
+        <v>2.033390409469086</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.9501469762957</v>
+        <v>14.43014382462396</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.043663792821205</v>
+        <v>7.698037869968877</v>
       </c>
       <c r="M3">
-        <v>14.35844328079726</v>
+        <v>11.22928854789218</v>
       </c>
       <c r="N3">
-        <v>18.68594310877313</v>
+        <v>14.10703680107992</v>
       </c>
       <c r="O3">
-        <v>18.71455813311098</v>
+        <v>16.71227382338568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.93899633274005</v>
+        <v>13.34616451139862</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.337859394778944</v>
+        <v>2.383535069011512</v>
       </c>
       <c r="E4">
-        <v>20.42377429749029</v>
+        <v>19.21633899040878</v>
       </c>
       <c r="F4">
-        <v>21.20569624594085</v>
+        <v>20.90826608469596</v>
       </c>
       <c r="G4">
-        <v>3.591176289876296</v>
+        <v>2.037482962247514</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.04344051476142</v>
+        <v>14.68449871286202</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.993569860024715</v>
+        <v>7.365769803673432</v>
       </c>
       <c r="M4">
-        <v>14.29718447948174</v>
+        <v>10.8857459074183</v>
       </c>
       <c r="N4">
-        <v>18.69545339925583</v>
+        <v>14.08596625240527</v>
       </c>
       <c r="O4">
-        <v>18.63752583019081</v>
+        <v>16.15759768065616</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.8785720011147</v>
+        <v>13.11240480213559</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.334810120241796</v>
+        <v>2.372700589403379</v>
       </c>
       <c r="E5">
-        <v>20.37583068868311</v>
+        <v>19.04814311732595</v>
       </c>
       <c r="F5">
-        <v>21.14044714153372</v>
+        <v>20.5612133925973</v>
       </c>
       <c r="G5">
-        <v>3.591859162399067</v>
+        <v>2.039182276842531</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.08259445977117</v>
+        <v>14.78994905721287</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.973410298413159</v>
+        <v>7.258206954097806</v>
       </c>
       <c r="M5">
-        <v>14.27259583260069</v>
+        <v>10.7432445960754</v>
       </c>
       <c r="N5">
-        <v>18.69986238344344</v>
+        <v>14.07840121844844</v>
       </c>
       <c r="O5">
-        <v>18.60753515820188</v>
+        <v>15.92979237516997</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.86853976868662</v>
+        <v>13.07321139445813</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.334302059957579</v>
+        <v>2.370893748772991</v>
       </c>
       <c r="E6">
-        <v>20.36785800408807</v>
+        <v>19.02007174529983</v>
       </c>
       <c r="F6">
-        <v>21.12970577779968</v>
+        <v>20.50328278611685</v>
       </c>
       <c r="G6">
-        <v>3.591973820513253</v>
+        <v>2.039466378800638</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.08916465533205</v>
+        <v>14.80756870493531</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.970078700013351</v>
+        <v>7.24022326129309</v>
       </c>
       <c r="M6">
-        <v>14.26853611186678</v>
+        <v>10.71943680820732</v>
       </c>
       <c r="N6">
-        <v>18.70062676008625</v>
+        <v>14.07720651821797</v>
       </c>
       <c r="O6">
-        <v>18.60264065143169</v>
+        <v>15.89186830845952</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.93818139690263</v>
+        <v>13.34303739031505</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.337818387659469</v>
+        <v>2.383389478502351</v>
       </c>
       <c r="E7">
-        <v>20.42312851576629</v>
+        <v>19.21408032188448</v>
       </c>
       <c r="F7">
-        <v>21.20481007895513</v>
+        <v>20.90360619174449</v>
       </c>
       <c r="G7">
-        <v>3.591185414397016</v>
+        <v>2.037505750826129</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.04396395427431</v>
+        <v>14.68591352199037</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.993296928040742</v>
+        <v>7.364327504907339</v>
       </c>
       <c r="M7">
-        <v>14.29685132506205</v>
+        <v>10.88383397199381</v>
       </c>
       <c r="N7">
-        <v>18.6955106981932</v>
+        <v>14.08586010205484</v>
       </c>
       <c r="O7">
-        <v>18.63711565667602</v>
+        <v>16.15453215292574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.24515873157063</v>
+        <v>14.4776524464327</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.353078848783796</v>
+        <v>2.437342902486579</v>
       </c>
       <c r="E8">
-        <v>20.66511774427303</v>
+        <v>20.04821000410814</v>
       </c>
       <c r="F8">
-        <v>21.54918653082406</v>
+        <v>22.6233254058183</v>
       </c>
       <c r="G8">
-        <v>3.587890131397932</v>
+        <v>2.029128642535484</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.85446809365834</v>
+        <v>14.16476665693354</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.097935239844718</v>
+        <v>8.037894549439976</v>
       </c>
       <c r="M8">
-        <v>14.42503769707015</v>
+        <v>11.58680859091703</v>
       </c>
       <c r="N8">
-        <v>18.67761347322687</v>
+        <v>14.13303281086366</v>
       </c>
       <c r="O8">
-        <v>18.80146222137145</v>
+        <v>17.2972521795129</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.84120977821415</v>
+        <v>16.49295684699877</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.382038512161989</v>
+        <v>2.538375998401607</v>
       </c>
       <c r="E9">
-        <v>21.13082912781159</v>
+        <v>21.59444214186294</v>
       </c>
       <c r="F9">
-        <v>22.26521677557766</v>
+        <v>25.80721599508592</v>
       </c>
       <c r="G9">
-        <v>3.582083972934912</v>
+        <v>2.013625175314178</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.51845943645343</v>
+        <v>13.19657572809882</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.309731298711887</v>
+        <v>9.222485659811506</v>
       </c>
       <c r="M9">
-        <v>14.68671859091384</v>
+        <v>12.92979871646897</v>
       </c>
       <c r="N9">
-        <v>18.65922057221555</v>
+        <v>14.25829821165011</v>
       </c>
       <c r="O9">
-        <v>19.16553099925294</v>
+        <v>19.46215729579774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.27145324369149</v>
+        <v>17.84117538927284</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.402687451931108</v>
+        <v>2.609291109944974</v>
       </c>
       <c r="E10">
-        <v>21.46586856217897</v>
+        <v>22.66837290691842</v>
       </c>
       <c r="F10">
-        <v>22.81064595417782</v>
+        <v>28.1618098885074</v>
       </c>
       <c r="G10">
-        <v>3.578213634806172</v>
+        <v>2.002733099964593</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.29307768986745</v>
+        <v>12.51536178306563</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.468227722184572</v>
+        <v>10.00977463417734</v>
       </c>
       <c r="M10">
-        <v>14.88403431863271</v>
+        <v>14.03071604922254</v>
       </c>
       <c r="N10">
-        <v>18.65578624993435</v>
+        <v>14.37069440613461</v>
       </c>
       <c r="O10">
-        <v>19.45636592988428</v>
+        <v>21.09433436231282</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4647022735226</v>
+        <v>18.42523196679762</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.411936653978399</v>
+        <v>2.640756347348487</v>
       </c>
       <c r="E11">
-        <v>21.61637908918142</v>
+        <v>23.14224925980164</v>
       </c>
       <c r="F11">
-        <v>23.06180192738228</v>
+        <v>29.22889213899174</v>
       </c>
       <c r="G11">
-        <v>3.576537850137083</v>
+        <v>1.9978705827025</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.19516508569138</v>
+        <v>12.21136853593197</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.540715278338011</v>
+        <v>10.35018067008214</v>
       </c>
       <c r="M11">
-        <v>14.97462960923945</v>
+        <v>14.50570963085271</v>
       </c>
       <c r="N11">
-        <v>18.65638884116142</v>
+        <v>14.4263219964781</v>
       </c>
       <c r="O11">
-        <v>19.59325127790343</v>
+        <v>21.91059449921019</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53746126403533</v>
+        <v>18.64216938574425</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.415417641901388</v>
+        <v>2.652551471926468</v>
       </c>
       <c r="E12">
-        <v>21.67307031968667</v>
+        <v>23.31951035191915</v>
       </c>
       <c r="F12">
-        <v>23.15724694089287</v>
+        <v>29.62711307938336</v>
       </c>
       <c r="G12">
-        <v>3.575915404393716</v>
+        <v>1.996041146612999</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.15874830844864</v>
+        <v>12.09704652357894</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.568199544941944</v>
+        <v>10.47656089739085</v>
       </c>
       <c r="M12">
-        <v>15.00903302504209</v>
+        <v>14.68189730750304</v>
       </c>
       <c r="N12">
-        <v>18.656926182407</v>
+        <v>14.44803849027329</v>
       </c>
       <c r="O12">
-        <v>19.64570140900254</v>
+        <v>22.2151315573777</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.52181100287785</v>
+        <v>18.59563651300403</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.414668916505787</v>
+        <v>2.65001660834281</v>
       </c>
       <c r="E13">
-        <v>21.66087484184045</v>
+        <v>23.28143224586663</v>
       </c>
       <c r="F13">
-        <v>23.13667769299729</v>
+        <v>29.54160789953043</v>
       </c>
       <c r="G13">
-        <v>3.576048920415339</v>
+        <v>1.996434642730723</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.16656197985854</v>
+        <v>12.12163341748469</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.562279098170535</v>
+        <v>10.44945445635937</v>
       </c>
       <c r="M13">
-        <v>15.00161969173253</v>
+        <v>14.64411536596409</v>
       </c>
       <c r="N13">
-        <v>18.65679674189227</v>
+        <v>14.44333240711527</v>
       </c>
       <c r="O13">
-        <v>19.63437871915953</v>
+        <v>22.14974519458198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.47069698188423</v>
+        <v>18.44316445290973</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.412223471887067</v>
+        <v>2.64172917735596</v>
       </c>
       <c r="E14">
-        <v>21.62104937294264</v>
+        <v>23.15687681715898</v>
       </c>
       <c r="F14">
-        <v>23.06964804075385</v>
+        <v>29.26177081915664</v>
       </c>
       <c r="G14">
-        <v>3.576486398261874</v>
+        <v>1.997719843873274</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.19215583308842</v>
+        <v>12.20194761223518</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.542975846642204</v>
+        <v>10.360628470775</v>
       </c>
       <c r="M14">
-        <v>14.97745818896085</v>
+        <v>14.52027830036277</v>
       </c>
       <c r="N14">
-        <v>18.65642686530122</v>
+        <v>14.42809554230507</v>
       </c>
       <c r="O14">
-        <v>19.59755432249101</v>
+        <v>21.93573975380378</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.43933157023868</v>
+        <v>18.34921925107676</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.41072274596989</v>
+        <v>2.636637085077289</v>
       </c>
       <c r="E15">
-        <v>21.59661465863373</v>
+        <v>23.08029640753267</v>
       </c>
       <c r="F15">
-        <v>23.02863150388424</v>
+        <v>29.08960265507571</v>
       </c>
       <c r="G15">
-        <v>3.576755944849083</v>
+        <v>1.998508572519646</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.20791874879971</v>
+        <v>12.25124406382004</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.531155964993662</v>
+        <v>10.30589211735787</v>
       </c>
       <c r="M15">
-        <v>14.96267050724826</v>
+        <v>14.44394599055487</v>
       </c>
       <c r="N15">
-        <v>18.65624050068331</v>
+        <v>14.41884750416581</v>
       </c>
       <c r="O15">
-        <v>19.5750770191942</v>
+        <v>21.80406430392878</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.25876862393064</v>
+        <v>17.80241474803004</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.402080029912465</v>
+        <v>2.607218284979247</v>
       </c>
       <c r="E16">
-        <v>21.45599147637835</v>
+        <v>22.63710192608351</v>
       </c>
       <c r="F16">
-        <v>22.79428494332398</v>
+        <v>28.09124780808622</v>
       </c>
       <c r="G16">
-        <v>3.578324853222418</v>
+        <v>2.003052619249701</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.29956911229858</v>
+        <v>12.53534253778648</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.463496489969446</v>
+        <v>9.987173561261931</v>
       </c>
       <c r="M16">
-        <v>14.87812853307056</v>
+        <v>13.99915707655591</v>
       </c>
       <c r="N16">
-        <v>18.655790249902</v>
+        <v>14.36714993777482</v>
       </c>
       <c r="O16">
-        <v>19.44750860492377</v>
+        <v>21.04034545951234</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.14731907623625</v>
+        <v>17.45945244190083</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.39674055254592</v>
+        <v>2.588963004520149</v>
       </c>
       <c r="E17">
-        <v>21.36921500645752</v>
+        <v>22.36140063157178</v>
       </c>
       <c r="F17">
-        <v>22.65122801514811</v>
+        <v>27.46824364957065</v>
       </c>
       <c r="G17">
-        <v>3.579309014518291</v>
+        <v>2.005862945626435</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.35697344082174</v>
+        <v>12.71110020140161</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.422073799216129</v>
+        <v>9.787124889908446</v>
       </c>
       <c r="M17">
-        <v>14.82646225985493</v>
+        <v>13.7197010034434</v>
       </c>
       <c r="N17">
-        <v>18.6560670077166</v>
+        <v>14.33659070779877</v>
       </c>
       <c r="O17">
-        <v>19.37039215247129</v>
+        <v>20.5635889762531</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.0829873627227</v>
+        <v>17.25943652157201</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.393655908152409</v>
+        <v>2.578388592266446</v>
       </c>
       <c r="E18">
-        <v>21.31912637467251</v>
+        <v>22.20144810724121</v>
       </c>
       <c r="F18">
-        <v>22.56923723151346</v>
+        <v>27.10600467785007</v>
       </c>
       <c r="G18">
-        <v>3.579883068491405</v>
+        <v>2.007488152095111</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.39042542486482</v>
+        <v>12.81274961315352</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.398286204162181</v>
+        <v>9.670390989775154</v>
       </c>
       <c r="M18">
-        <v>14.79682520947107</v>
+        <v>13.55653290937444</v>
       </c>
       <c r="N18">
-        <v>18.65643009457341</v>
+        <v>14.31943696792788</v>
       </c>
       <c r="O18">
-        <v>19.32647093796423</v>
+        <v>20.32609325795329</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06116846853711</v>
+        <v>17.19124273067301</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.392609202033812</v>
+        <v>2.57479567695344</v>
       </c>
       <c r="E19">
-        <v>21.30213774743626</v>
+        <v>22.14705719205605</v>
       </c>
       <c r="F19">
-        <v>22.54152971356838</v>
+        <v>26.98268408204982</v>
       </c>
       <c r="G19">
-        <v>3.580078807625799</v>
+        <v>2.00803996760945</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.40182641464816</v>
+        <v>12.84726382216778</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.390239234381776</v>
+        <v>9.630579134806148</v>
       </c>
       <c r="M19">
-        <v>14.78680506278759</v>
+        <v>13.50086837400429</v>
       </c>
       <c r="N19">
-        <v>18.65658811436092</v>
+        <v>14.3137015263313</v>
       </c>
       <c r="O19">
-        <v>19.31167586436349</v>
+        <v>20.24837802791843</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15920723941296</v>
+        <v>17.49624652549669</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.397310353628585</v>
+        <v>2.590914060491091</v>
       </c>
       <c r="E20">
-        <v>21.37847106231418</v>
+        <v>22.3908925806042</v>
       </c>
       <c r="F20">
-        <v>22.66642719336505</v>
+        <v>27.53496693285754</v>
       </c>
       <c r="G20">
-        <v>3.579203422354384</v>
+        <v>2.00556288245136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.35081770125664</v>
+        <v>12.69233310023421</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.426479570838298</v>
+        <v>9.808593197663388</v>
       </c>
       <c r="M20">
-        <v>14.83195410843256</v>
+        <v>13.74970111009758</v>
       </c>
       <c r="N20">
-        <v>18.65601645850646</v>
+        <v>14.3397999629369</v>
       </c>
       <c r="O20">
-        <v>19.37855671755736</v>
+        <v>20.61465644072714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.48572231518275</v>
+        <v>18.48806418496851</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.41294234739271</v>
+        <v>2.644166699383829</v>
       </c>
       <c r="E21">
-        <v>21.6327555649599</v>
+        <v>23.19352160802296</v>
       </c>
       <c r="F21">
-        <v>23.08932789221892</v>
+        <v>29.34412390172646</v>
       </c>
       <c r="G21">
-        <v>3.576357571512093</v>
+        <v>1.997342037966409</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.1846203931302</v>
+        <v>12.17833629639355</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.548644900074802</v>
+        <v>10.38678709182061</v>
       </c>
       <c r="M21">
-        <v>14.98455256188626</v>
+        <v>14.55675191307062</v>
       </c>
       <c r="N21">
-        <v>18.65652713428438</v>
+        <v>14.43255326096356</v>
       </c>
       <c r="O21">
-        <v>19.60835421968157</v>
+        <v>21.99872128465727</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.6966415739574</v>
+        <v>19.13160697893058</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.423033180109601</v>
+        <v>2.678268165142298</v>
       </c>
       <c r="E22">
-        <v>21.79716046469607</v>
+        <v>23.70532386148917</v>
       </c>
       <c r="F22">
-        <v>23.36764146679346</v>
+        <v>30.49242086146345</v>
       </c>
       <c r="G22">
-        <v>3.574568360982708</v>
+        <v>1.992037837848045</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.07984996589733</v>
+        <v>11.8470077338366</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.628680336701013</v>
+        <v>10.74997252028249</v>
       </c>
       <c r="M22">
-        <v>15.08483878121514</v>
+        <v>15.06276151229285</v>
       </c>
       <c r="N22">
-        <v>18.65866181186783</v>
+        <v>14.49697242694334</v>
       </c>
       <c r="O22">
-        <v>19.76210127684596</v>
+        <v>22.8767518135161</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.58431727920236</v>
+        <v>18.78107123538958</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.417659254784462</v>
+        <v>2.660133606921455</v>
       </c>
       <c r="E23">
-        <v>21.70958770280811</v>
+        <v>23.43335392229536</v>
       </c>
       <c r="F23">
-        <v>23.21895661654745</v>
+        <v>29.88263411059299</v>
       </c>
       <c r="G23">
-        <v>3.575516846686022</v>
+        <v>1.994863001103074</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.13541669938742</v>
+        <v>12.02344213935658</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.585953058002907</v>
+        <v>10.55746876845525</v>
       </c>
       <c r="M23">
-        <v>15.03127108415476</v>
+        <v>14.7946456146255</v>
       </c>
       <c r="N23">
-        <v>18.65735844335829</v>
+        <v>14.46224159889092</v>
       </c>
       <c r="O23">
-        <v>19.67973270377378</v>
+        <v>22.41052038498227</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.15383339909426</v>
+        <v>17.47962077143206</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.397052792921493</v>
+        <v>2.590032234353226</v>
       </c>
       <c r="E24">
-        <v>21.37428701920085</v>
+        <v>22.377563775097</v>
       </c>
       <c r="F24">
-        <v>22.65955484435898</v>
+        <v>27.50481400645718</v>
       </c>
       <c r="G24">
-        <v>3.579251134878789</v>
+        <v>2.005698511280736</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.35359931080503</v>
+        <v>12.7008158213438</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.424487636209541</v>
+        <v>9.798892745216573</v>
       </c>
       <c r="M24">
-        <v>14.82947103451551</v>
+        <v>13.73614586690199</v>
       </c>
       <c r="N24">
-        <v>18.656038676274</v>
+        <v>14.33834776589413</v>
       </c>
       <c r="O24">
-        <v>19.37486422448575</v>
+        <v>20.59157876123364</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.68102491154187</v>
+        <v>15.97077702093438</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.374311575651968</v>
+        <v>2.511598203623634</v>
       </c>
       <c r="E25">
-        <v>21.005967478014</v>
+        <v>21.18657717413354</v>
       </c>
       <c r="F25">
-        <v>22.06771169624221</v>
+        <v>24.96747336062398</v>
       </c>
       <c r="G25">
-        <v>3.583584932229588</v>
+        <v>2.017726786238582</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.60557052457187</v>
+        <v>13.45300591099073</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.251844544381919</v>
+        <v>8.916681513657334</v>
       </c>
       <c r="M25">
-        <v>14.6149484974525</v>
+        <v>12.5364843737447</v>
       </c>
       <c r="N25">
-        <v>18.66241853287728</v>
+        <v>14.2208607475807</v>
       </c>
       <c r="O25">
-        <v>19.06277758319763</v>
+        <v>18.88591169201967</v>
       </c>
     </row>
   </sheetData>
